--- a/biology/Botanique/Didierea/Didierea.xlsx
+++ b/biology/Botanique/Didierea/Didierea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didierea est un genre de plantes de la famille des Didiereaceae.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 décembre 2018)[2], GRIN            (9 décembre 2018)[3], World Checklist of Selected Plant Families (WCSP)  (9 décembre 2018)[4], NCBI  (9 décembre 2018)[5] et The Plant List            (9 décembre 2018)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 décembre 2018), GRIN            (9 décembre 2018), World Checklist of Selected Plant Families (WCSP)  (9 décembre 2018), NCBI  (9 décembre 2018) et The Plant List            (9 décembre 2018) :
 Didierea madagascariensis Baill. (1880)
 Didierea trollii Capuron &amp; Rauh (1961)
-Selon Tropicos                                           (9 décembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Didierea ascendens Drake
 Didierea comosa Drake
 Didierea dumosa Drake
